--- a/Pandas/Hello.xlsx
+++ b/Pandas/Hello.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t xml:space="preserve">Hello </t>
   </si>
@@ -374,7 +374,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,9 +481,6 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
@@ -508,9 +505,6 @@
       </c>
       <c r="C10">
         <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
